--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\Phaser3Games\reversePuzzle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\Phaser3Games\RevPuzzle_Phaser3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8BA628-52A7-4B11-9CA7-D825CDC6B855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6501B665-CAC7-4979-9637-53AEB50F896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,12 +321,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -609,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15"/>
   <cols>
@@ -695,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AA27AC-2398-482C-9577-DC4BFB75C201}">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15"/>
   <cols>
@@ -732,148 +730,113 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="7"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="8"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="2:16">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="2:16">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7"/>
+      <c r="J7" s="7"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="2:16">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
+      <c r="J8" s="7"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="2:16">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="2:16">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="2:16">
       <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="8"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="2:16">
       <c r="C13" s="6"/>
@@ -889,7 +852,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="8"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="2:16">
       <c r="C14" s="6"/>
@@ -904,168 +867,112 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="2:16">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="2:16">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="3:16">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="3:16">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="6"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="7"/>
     </row>
     <row r="24" spans="3:16">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\Phaser3Games\RevPuzzle_Phaser3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6501B665-CAC7-4979-9637-53AEB50F896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA24063-44BC-4322-8A5E-8865585F31D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,28 @@
     <sheet name="画面" sheetId="2" r:id="rId2"/>
     <sheet name="アセット" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ゲーム内容</t>
     <rPh sb="3" eb="5">
@@ -175,6 +186,55 @@
   </si>
   <si>
     <t>Ex</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パズルの大きさ</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>幅</t>
+    <rPh sb="0" eb="1">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高さ</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パネル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パネル間</t>
+    <rPh sb="3" eb="4">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パネル端の余白</t>
+    <rPh sb="3" eb="4">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨハク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>理想</t>
+    <rPh sb="0" eb="2">
+      <t>リソウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -213,15 +273,21 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -309,11 +375,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,6 +566,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -691,21 +950,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AA27AC-2398-482C-9577-DC4BFB75C201}">
-  <dimension ref="B2:P24"/>
+  <dimension ref="B2:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="4.69921875" style="1"/>
+    <col min="1" max="26" width="4.69921875" style="1"/>
+    <col min="27" max="27" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="4.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:37" ht="15.6" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="3" spans="2:37">
+      <c r="T3" s="20"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="22"/>
+    </row>
+    <row r="4" spans="2:37">
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -720,8 +1001,28 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="T4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="25"/>
+    </row>
+    <row r="5" spans="2:37">
       <c r="C5" s="6"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -735,8 +1036,38 @@
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="24">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="24">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="25"/>
+    </row>
+    <row r="6" spans="2:37">
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
@@ -752,8 +1083,31 @@
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="R6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="23"/>
+      <c r="U6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="25"/>
+    </row>
+    <row r="7" spans="2:37">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
@@ -769,8 +1123,40 @@
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="R7" s="1">
+        <v>704</v>
+      </c>
+      <c r="T7" s="23"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24">
+        <f>Y17*2+Y14*(Y5-1)+Y11*Y5</f>
+        <v>704</v>
+      </c>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24">
+        <f>AC17*2+AC14*(AC5-1)+AC11*AC5</f>
+        <v>704</v>
+      </c>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24">
+        <f>AG17*2+AG14*(AG5-1)+AG11*AG5</f>
+        <v>704</v>
+      </c>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="25"/>
+    </row>
+    <row r="8" spans="2:37">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
@@ -786,8 +1172,40 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="R8" s="1">
+        <v>464</v>
+      </c>
+      <c r="T8" s="23"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24">
+        <f>Y18*2+Y15*(Z5-1)+Y12*Z5</f>
+        <v>464</v>
+      </c>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24">
+        <f>AC18*2+AC15*(AD5-1)+AC12*AD5</f>
+        <v>464</v>
+      </c>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24">
+        <f>AG18*2+AG15*(AH5-1)+AG12*AH5</f>
+        <v>464</v>
+      </c>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="25"/>
+    </row>
+    <row r="9" spans="2:37">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
@@ -803,8 +1221,26 @@
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="2:16">
+      <c r="T9" s="23"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="25"/>
+    </row>
+    <row r="10" spans="2:37">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
@@ -817,8 +1253,28 @@
       <c r="L10" s="6"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="25"/>
+    </row>
+    <row r="11" spans="2:37">
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="8"/>
@@ -833,12 +1289,64 @@
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
       <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24">
+        <v>120</v>
+      </c>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24">
+        <v>120</v>
+      </c>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24">
+        <v>96</v>
+      </c>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="25"/>
+    </row>
+    <row r="12" spans="2:37">
       <c r="C12" s="6"/>
       <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="2:16">
+      <c r="T12" s="23"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24">
+        <v>90</v>
+      </c>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24">
+        <v>90</v>
+      </c>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24">
+        <v>72</v>
+      </c>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="25"/>
+    </row>
+    <row r="13" spans="2:37">
       <c r="C13" s="6"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
@@ -853,96 +1361,290 @@
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
       <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="2:16">
+      <c r="T13" s="23"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="25"/>
+    </row>
+    <row r="14" spans="2:37">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="Q14" s="1">
+        <v>720</v>
+      </c>
+      <c r="T14" s="23"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24">
+        <v>24</v>
+      </c>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24">
+        <v>20</v>
+      </c>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24">
+        <v>20</v>
+      </c>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="25"/>
+    </row>
+    <row r="15" spans="2:37">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="N15" s="7"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="T15" s="23"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24">
+        <v>24</v>
+      </c>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24">
+        <v>20</v>
+      </c>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="25"/>
+    </row>
+    <row r="16" spans="2:37">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="N16" s="7"/>
+      <c r="E16" s="14"/>
+      <c r="N16" s="15"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="3:16">
+      <c r="T16" s="23"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="25"/>
+    </row>
+    <row r="17" spans="3:37">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="N17" s="7"/>
+      <c r="E17" s="14"/>
+      <c r="N17" s="15"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="3:16">
+      <c r="P17" s="7">
+        <v>464</v>
+      </c>
+      <c r="T17" s="23"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24">
+        <v>148</v>
+      </c>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24">
+        <v>82</v>
+      </c>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24">
+        <v>130</v>
+      </c>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="25"/>
+    </row>
+    <row r="18" spans="3:37">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="N18" s="7"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="N18" s="15"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="3:16">
+      <c r="T18" s="23"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24">
+        <v>73</v>
+      </c>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24">
+        <v>73</v>
+      </c>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="25"/>
+    </row>
+    <row r="19" spans="3:37">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="N19" s="7"/>
+      <c r="E19" s="14"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="3:16">
+      <c r="T19" s="23"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="25"/>
+    </row>
+    <row r="20" spans="3:37" ht="15.6" thickBot="1">
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="N20" s="7"/>
+      <c r="E20" s="14"/>
+      <c r="N20" s="15"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="3:16">
+      <c r="T20" s="26"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="28"/>
+    </row>
+    <row r="21" spans="3:37">
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="N21" s="7"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="3:16">
+    <row r="22" spans="3:37">
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="3:16">
+    <row r="23" spans="3:37">
       <c r="C23" s="6"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
@@ -958,14 +1660,16 @@
       <c r="O23" s="10"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="3:16">
+    <row r="24" spans="3:37">
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9">
+        <v>704</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -973,6 +1677,11 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="3:37">
+      <c r="I25" s="1">
+        <v>720</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\Phaser3Games\RevPuzzle_Phaser3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA24063-44BC-4322-8A5E-8865585F31D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48C7C33-8BE9-4A62-B7BF-3BB9A93BCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -952,7 +952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AA27AC-2398-482C-9577-DC4BFB75C201}">
   <dimension ref="B2:AK25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15"/>
   <cols>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\Phaser3Games\RevPuzzle_Phaser3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48C7C33-8BE9-4A62-B7BF-3BB9A93BCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A2EC8-D284-49D8-BC74-C7D188928684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
   <dimension ref="B2:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15"/>
@@ -1136,21 +1136,21 @@
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
       <c r="Y7" s="24">
-        <f>Y17*2+Y14*(Y5-1)+Y11*Y5</f>
+        <f>Y17*2+Y14*Y5+Y11*(Y5 + 1)</f>
         <v>704</v>
       </c>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="24"/>
       <c r="AC7" s="24">
-        <f>AC17*2+AC14*(AC5-1)+AC11*AC5</f>
+        <f>AC17*2+AC14*AC5+AC11*(AC5 + 1)</f>
         <v>704</v>
       </c>
       <c r="AD7" s="24"/>
       <c r="AE7" s="24"/>
       <c r="AF7" s="24"/>
       <c r="AG7" s="24">
-        <f>AG17*2+AG14*(AG5-1)+AG11*AG5</f>
+        <f>AG17*2+AG14*AG5+AG11*(AG5 + 1)</f>
         <v>704</v>
       </c>
       <c r="AH7" s="24"/>
@@ -1305,7 +1305,7 @@
       <c r="AA11" s="24"/>
       <c r="AB11" s="24"/>
       <c r="AC11" s="24">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="24"/>
       <c r="AE11" s="24"/>
@@ -1335,7 +1335,7 @@
       <c r="AA12" s="24"/>
       <c r="AB12" s="24"/>
       <c r="AC12" s="24">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="AD12" s="24"/>
       <c r="AE12" s="24"/>
@@ -1410,19 +1410,19 @@
       </c>
       <c r="X14" s="24"/>
       <c r="Y14" s="24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Z14" s="24"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="24"/>
       <c r="AC14" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AD14" s="24"/>
       <c r="AE14" s="24"/>
       <c r="AF14" s="24"/>
       <c r="AG14" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH14" s="24"/>
       <c r="AI14" s="24"/>
@@ -1447,19 +1447,19 @@
       </c>
       <c r="X15" s="24"/>
       <c r="Y15" s="24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Z15" s="24"/>
       <c r="AA15" s="24"/>
       <c r="AB15" s="24"/>
       <c r="AC15" s="24">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AD15" s="24"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH15" s="24"/>
       <c r="AI15" s="24"/>
@@ -1511,19 +1511,19 @@
       </c>
       <c r="X17" s="24"/>
       <c r="Y17" s="24">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="24"/>
       <c r="AC17" s="24">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD17" s="24"/>
       <c r="AE17" s="24"/>
       <c r="AF17" s="24"/>
       <c r="AG17" s="24">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AH17" s="24"/>
       <c r="AI17" s="24"/>
@@ -1548,19 +1548,19 @@
       </c>
       <c r="X18" s="24"/>
       <c r="Y18" s="24">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
       <c r="AB18" s="24"/>
       <c r="AC18" s="24">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AD18" s="24"/>
       <c r="AE18" s="24"/>
       <c r="AF18" s="24"/>
       <c r="AG18" s="24">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AH18" s="24"/>
       <c r="AI18" s="24"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\Phaser3Games\RevPuzzle_Phaser3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A2EC8-D284-49D8-BC74-C7D188928684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1636A7BA-D0F3-4090-8386-E1B28930074C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>ゲーム内容</t>
     <rPh sb="3" eb="5">
@@ -185,10 +185,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Ex</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>パズルの大きさ</t>
     <rPh sb="4" eb="5">
       <t>オオ</t>
@@ -234,6 +230,47 @@
     <t>理想</t>
     <rPh sb="0" eb="2">
       <t>リソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Extra</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度選択ボタンの大きさ</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン間の幅</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハバ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン間の高さ</t>
+    <rPh sb="3" eb="4">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -950,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AA27AC-2398-482C-9577-DC4BFB75C201}">
-  <dimension ref="B2:AK25"/>
+  <dimension ref="B2:AK29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="15"/>
@@ -1000,11 +1037,13 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4">
+        <v>224</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
       <c r="T4" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
@@ -1081,12 +1120,12 @@
       <c r="J6" s="7"/>
       <c r="L6" s="6"/>
       <c r="M6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="R6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6" s="23"/>
       <c r="U6" s="24" t="s">
@@ -1120,9 +1159,6 @@
       </c>
       <c r="J7" s="7"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="R7" s="1">
@@ -1131,7 +1167,7 @@
       <c r="T7" s="23"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
@@ -1173,14 +1209,16 @@
         <v>24</v>
       </c>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="7">
+        <v>224</v>
+      </c>
       <c r="R8" s="1">
         <v>464</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W8" s="24"/>
       <c r="X8" s="24"/>
@@ -1218,9 +1256,6 @@
       </c>
       <c r="J9" s="7"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="T9" s="23"/>
@@ -1253,12 +1288,15 @@
       </c>
       <c r="J10" s="7"/>
       <c r="L10" s="6"/>
+      <c r="M10" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="T10" s="23"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
@@ -1295,7 +1333,7 @@
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X11" s="24"/>
       <c r="Y11" s="24">
@@ -1325,7 +1363,7 @@
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X12" s="24"/>
       <c r="Y12" s="24">
@@ -1366,7 +1404,7 @@
       <c r="T13" s="23"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
@@ -1406,7 +1444,7 @@
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
       <c r="W14" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X14" s="24"/>
       <c r="Y14" s="24">
@@ -1443,7 +1481,7 @@
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
       <c r="W15" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X15" s="24"/>
       <c r="Y15" s="24">
@@ -1476,7 +1514,7 @@
       <c r="T16" s="23"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W16" s="24"/>
       <c r="X16" s="24"/>
@@ -1507,7 +1545,7 @@
       <c r="U17" s="24"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X17" s="24"/>
       <c r="Y17" s="24">
@@ -1544,7 +1582,7 @@
       <c r="U18" s="24"/>
       <c r="V18" s="24"/>
       <c r="W18" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X18" s="24"/>
       <c r="Y18" s="24">
@@ -1645,6 +1683,9 @@
       <c r="N22" s="18"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
+      <c r="T22" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="3:37">
       <c r="C23" s="6"/>
@@ -1679,10 +1720,59 @@
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="10"/>
+      <c r="U24" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="3:37">
       <c r="I25" s="1">
         <v>720</v>
+      </c>
+      <c r="R25" s="1">
+        <v>224</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>R25 - Y28 * 2</f>
+        <v>168</v>
+      </c>
+      <c r="AA25" s="1">
+        <f>Y25 / 3</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:37">
+      <c r="R26" s="1">
+        <v>224</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>(R26 - Y29 * 4) / 3</f>
+        <v>48</v>
+      </c>
+      <c r="AA26" s="1">
+        <f>Y26 / 3</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:37">
+      <c r="U28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:37">
+      <c r="U29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
